--- a/docentes/Pesce Bautista Victor Manuel - Estadisticos 20202.xlsx
+++ b/docentes/Pesce Bautista Victor Manuel - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>Mat</t>
   </si>
@@ -83,6 +83,39 @@
   </si>
   <si>
     <t>Reprobadas</t>
+  </si>
+  <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>PINO</t>
+  </si>
+  <si>
+    <t>JOSE EMMANUEL</t>
+  </si>
+  <si>
+    <t>DIEGO ABDEL JARIN</t>
+  </si>
+  <si>
+    <t>RICARDO ISIDRO</t>
+  </si>
+  <si>
+    <t>CESAR JAHIR</t>
   </si>
 </sst>
 </file>
@@ -878,7 +911,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -911,6 +944,98 @@
         <v>21</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920247</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920409</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920411</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docentes/Pesce Bautista Victor Manuel - Estadisticos 20202.xlsx
+++ b/docentes/Pesce Bautista Victor Manuel - Estadisticos 20202.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
   <si>
     <t>Mat</t>
   </si>
@@ -85,31 +85,55 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>MANI</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
     <t>BONILLA</t>
   </si>
   <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
     <t>SANCHEZ</t>
   </si>
   <si>
+    <t>GERARDO</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>ZAPATA</t>
+  </si>
+  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>SIERRA</t>
-  </si>
-  <si>
     <t>GARCIA</t>
   </si>
   <si>
     <t>PINO</t>
   </si>
   <si>
+    <t>JULIO GABRIEL</t>
+  </si>
+  <si>
+    <t>DIEGO ABDEL JARIN</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
     <t>JOSE EMMANUEL</t>
-  </si>
-  <si>
-    <t>DIEGO ABDEL JARIN</t>
   </si>
   <si>
     <t>RICARDO ISIDRO</t>
@@ -911,7 +935,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -946,16 +970,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920247</v>
+        <v>19330051920252</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -975,10 +999,10 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -992,16 +1016,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920409</v>
+        <v>19330051920261</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -1010,21 +1034,21 @@
         <v>14</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920411</v>
+        <v>19330051920265</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1033,6 +1057,75 @@
         <v>14</v>
       </c>
       <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920409</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920411</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
